--- a/Business Rules.xlsx
+++ b/Business Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/DataClass/Project_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F2738-2DAA-5A48-8B4D-1B7F00C121CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A39D61-A854-3640-9E9F-D75AF42962C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="29700" windowHeight="19960" xr2:uid="{D5E29D38-FEE8-7A49-AC20-C7609AB2CFF5}"/>
+    <workbookView xWindow="18020" yWindow="540" windowWidth="20380" windowHeight="19920" xr2:uid="{D5E29D38-FEE8-7A49-AC20-C7609AB2CFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>Source DB</t>
   </si>
@@ -90,9 +90,6 @@
     <t>split to get last 3 nation abbreviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Dropped columns: </t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>league_table</t>
   </si>
   <si>
-    <t>Dropped columns:</t>
-  </si>
-  <si>
     <t>Table Rules</t>
   </si>
   <si>
@@ -130,13 +124,82 @@
   </si>
   <si>
     <t>Table Name</t>
+  </si>
+  <si>
+    <t>Dropped columns:"xG, xGA, xGD, xGD/90, Attendance, Top Team Scorer, Goalkeeper, Notes"</t>
+  </si>
+  <si>
+    <t>Dropped columns: "90s, G-PK, Pkatt, Gls.1, Ast.1, G+A, G-PK.1, G+A-PK, xG, npxG, xA, npxG+xA, xG.1, xA.1, xG+xA, npxG.1, npxG+xA.1, Matches\"</t>
+  </si>
+  <si>
+    <t>df4</t>
+  </si>
+  <si>
+    <t>Groupby: Squad and find the average mean of age</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Rename Column</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Gls</t>
+  </si>
+  <si>
+    <t>Ast</t>
+  </si>
+  <si>
+    <t>CrdY</t>
+  </si>
+  <si>
+    <t>CrdR</t>
+  </si>
+  <si>
+    <t>Draws</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Top_Scorer</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Minutes_Played</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Yellow_Cards</t>
+  </si>
+  <si>
+    <t>Red_Cards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +220,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +574,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +586,7 @@
     <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="11" max="11" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -630,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -641,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -653,30 +722,30 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -684,35 +753,334 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" xr:uid="{F5802A16-37F6-704D-B044-5808E9E7FDC2}"/>
   </hyperlinks>

--- a/Business Rules.xlsx
+++ b/Business Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/DataClass/Project_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A39D61-A854-3640-9E9F-D75AF42962C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F74A5D-F855-7142-B347-2A586AF7C915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="540" windowWidth="20380" windowHeight="19920" xr2:uid="{D5E29D38-FEE8-7A49-AC20-C7609AB2CFF5}"/>
+    <workbookView xWindow="16900" yWindow="540" windowWidth="21500" windowHeight="19920" xr2:uid="{D5E29D38-FEE8-7A49-AC20-C7609AB2CFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Dropped columns: "90s, G-PK, Pkatt, Gls.1, Ast.1, G+A, G-PK.1, G+A-PK, xG, npxG, xA, npxG+xA, xG.1, xA.1, xG+xA, npxG.1, npxG+xA.1, Matches\"</t>
   </si>
   <si>
-    <t>df4</t>
-  </si>
-  <si>
     <t>Groupby: Squad and find the average mean of age</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Red_Cards</t>
+  </si>
+  <si>
+    <t>Top_Players_DF</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,28 +770,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -799,10 +799,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -811,16 +811,16 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -828,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -840,16 +840,16 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -857,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -869,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -898,16 +898,16 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -915,10 +915,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -927,16 +927,16 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -956,16 +956,16 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -973,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -985,16 +985,16 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1014,16 +1014,16 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1043,16 +1043,16 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1065,15 +1065,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
